--- a/medicine/Psychotrope/Holsten-Brauerei/Holsten-Brauerei.xlsx
+++ b/medicine/Psychotrope/Holsten-Brauerei/Holsten-Brauerei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Holsten-Brauerei est une brasserie à Altona, un arrondissement de Hambourg.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Environ un an après l'assemblée constitutive du 24 mai 1879, la production démarre. La première dégustation de bière Holsten a lieu le 6 mai 1880. Un chevalier sur un cheval sert de marque de logo à Holsten. Pendant les 25 premières années, la bière Holsten est distribuée principalement sur le marché local (Altona et Hambourg) et devient vite le premier producteur de bière dans la région de Hambourg. En 1881 Holsten commence avec l'exportation de bière et construit en 1903 à Wandsworth près de Londres une succursale appelée The Holsten Brewery Ltd.
 Holsten consolide sa position sur le marché local et poursuit son expansion au niveau régional par l'acquisition d'autres brasseries de 1909 à 1924.
@@ -547,7 +561,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Holsten Pilsener (alc. 4,8 % vol.)
 Holsten alkoholfrei
